--- a/Gui/NVS.xlsx
+++ b/Gui/NVS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>password</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>8:00 - 9:00</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 10:15</t>
+  </si>
+  <si>
+    <t>10:15 - 11:15</t>
+  </si>
+  <si>
+    <t>11:15 -12:15</t>
+  </si>
+  <si>
+    <t>12:15 - 01:00</t>
+  </si>
+  <si>
+    <t>01:00 - 02:00</t>
+  </si>
+  <si>
+    <t>02:00 - 03:00</t>
   </si>
 </sst>
 </file>
@@ -92,9 +116,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,7 +418,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H4" sqref="H4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,40 +468,208 @@
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>47</v>
+      </c>
+      <c r="H10">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Gui/NVS.xlsx
+++ b/Gui/NVS.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
